--- a/teaching/traditional_assets/database/data/peru/peru_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/peru/peru_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0766</v>
+        <v>-0.0133</v>
       </c>
       <c r="E2">
-        <v>0.10135</v>
+        <v>-0.0906</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +609,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2371.6</v>
+        <v>820.6</v>
       </c>
       <c r="L2">
-        <v>0.3719048440464803</v>
+        <v>0.2220478406753978</v>
       </c>
       <c r="M2">
-        <v>1029.8</v>
+        <v>861.255</v>
       </c>
       <c r="N2">
-        <v>0.03008559992988401</v>
+        <v>0.04503600244722517</v>
       </c>
       <c r="O2">
-        <v>0.4342216225333109</v>
+        <v>1.049543017304411</v>
       </c>
       <c r="P2">
-        <v>1029.8</v>
+        <v>861.2</v>
       </c>
       <c r="Q2">
-        <v>0.03008559992988401</v>
+        <v>0.04503312643473805</v>
       </c>
       <c r="R2">
-        <v>0.4342216225333109</v>
+        <v>1.049475993175725</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.05500000000000682</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>6.386029689233365e-05</v>
       </c>
       <c r="U2">
-        <v>13991.3</v>
+        <v>18967.9</v>
       </c>
       <c r="V2">
-        <v>0.4087557334424027</v>
+        <v>0.9918530409910217</v>
       </c>
       <c r="W2">
-        <v>0.1943253914572294</v>
+        <v>0.08342842178117811</v>
       </c>
       <c r="X2">
-        <v>0.05597849521777378</v>
+        <v>0.06681065503914499</v>
       </c>
       <c r="Y2">
-        <v>0.1383468962394556</v>
+        <v>0.01661776674203312</v>
       </c>
       <c r="Z2">
-        <v>0.2946130746130746</v>
+        <v>0.2572061713891193</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04623355960051959</v>
+        <v>0.04196599435506897</v>
       </c>
       <c r="AC2">
-        <v>-0.04623355960051959</v>
+        <v>-0.04196599435506897</v>
       </c>
       <c r="AD2">
-        <v>21155.4</v>
+        <v>25050.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>21155.4</v>
+        <v>25050.4</v>
       </c>
       <c r="AG2">
-        <v>7164.1</v>
+        <v>6082.5</v>
       </c>
       <c r="AH2">
-        <v>0.3819739854543879</v>
+        <v>0.5670834267138436</v>
       </c>
       <c r="AI2">
-        <v>0.6138743721363468</v>
+        <v>0.7150004994933711</v>
       </c>
       <c r="AJ2">
-        <v>0.1730747395097251</v>
+        <v>0.2413096777776896</v>
       </c>
       <c r="AK2">
-        <v>0.3499667819528303</v>
+        <v>0.3785568473200727</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scotiabank Perú S.A.A. (BVL:SCOTIAC1)</t>
+          <t>Banco de Crédito del Perú S.A. (BVL:CREDITC1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0799</v>
+        <v>-0.0103</v>
       </c>
       <c r="E3">
-        <v>0.106</v>
+        <v>-0.0906</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>414.4</v>
+        <v>446</v>
       </c>
       <c r="L3">
-        <v>0.3632220177053203</v>
+        <v>0.2134277647509212</v>
       </c>
       <c r="M3">
-        <v>151.2</v>
+        <v>510.6</v>
       </c>
       <c r="N3">
-        <v>0.02281540945511611</v>
+        <v>0.04389312977099237</v>
       </c>
       <c r="O3">
-        <v>0.3648648648648649</v>
+        <v>1.144843049327354</v>
       </c>
       <c r="P3">
-        <v>151.2</v>
+        <v>510.6</v>
       </c>
       <c r="Q3">
-        <v>0.02281540945511611</v>
+        <v>0.04389312977099237</v>
       </c>
       <c r="R3">
-        <v>0.3648648648648649</v>
+        <v>1.144843049327354</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>534.2</v>
+        <v>8483.799999999999</v>
       </c>
       <c r="V3">
-        <v>0.08060841091880309</v>
+        <v>0.7292999105976206</v>
       </c>
       <c r="W3">
-        <v>0.1606886657101865</v>
+        <v>0.08342842178117811</v>
       </c>
       <c r="X3">
-        <v>0.05490714009662612</v>
+        <v>0.05939141747663106</v>
       </c>
       <c r="Y3">
-        <v>0.1057815256135604</v>
+        <v>0.02403700430454705</v>
       </c>
       <c r="Z3">
-        <v>0.2311573061026015</v>
+        <v>0.2742496423743717</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04615017455147372</v>
+        <v>0.04115707489571348</v>
       </c>
       <c r="AC3">
-        <v>-0.04615017455147372</v>
+        <v>-0.04115707489571348</v>
       </c>
       <c r="AD3">
-        <v>3686.5</v>
+        <v>12816.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3686.5</v>
+        <v>12816.6</v>
       </c>
       <c r="AG3">
-        <v>3152.3</v>
+        <v>4332.800000000001</v>
       </c>
       <c r="AH3">
-        <v>0.3574406608749612</v>
+        <v>0.5242091830474367</v>
       </c>
       <c r="AI3">
-        <v>0.5664740772611327</v>
+        <v>0.7153038615447295</v>
       </c>
       <c r="AJ3">
-        <v>0.3223408389062724</v>
+        <v>0.2713834744701108</v>
       </c>
       <c r="AK3">
-        <v>0.5277052363733762</v>
+        <v>0.4592798312468863</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Banco de Crédito del Perú (BVL:CREDITC1)</t>
+          <t>Banco BBVA Perú, S.A. (BVL:BBVAC1)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08500000000000001</v>
+        <v>-0.0133</v>
       </c>
       <c r="E4">
-        <v>0.14</v>
+        <v>-0.078</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,28 +853,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1077.2</v>
+        <v>258.5</v>
       </c>
       <c r="L4">
-        <v>0.3699684022530568</v>
+        <v>0.2807646356033452</v>
       </c>
       <c r="M4">
-        <v>446</v>
+        <v>156.4</v>
       </c>
       <c r="N4">
-        <v>0.02677022622641849</v>
+        <v>0.0399081398315897</v>
       </c>
       <c r="O4">
-        <v>0.4140363906424062</v>
+        <v>0.6050290135396519</v>
       </c>
       <c r="P4">
-        <v>446</v>
+        <v>156.4</v>
       </c>
       <c r="Q4">
-        <v>0.02677022622641849</v>
+        <v>0.0399081398315897</v>
       </c>
       <c r="R4">
-        <v>0.4140363906424062</v>
+        <v>0.6050290135396519</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,55 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7015.1</v>
+        <v>5776</v>
       </c>
       <c r="V4">
-        <v>0.4210668475357587</v>
+        <v>1.473845368716509</v>
       </c>
       <c r="W4">
-        <v>0.2191078656713382</v>
+        <v>0.09930849020361122</v>
       </c>
       <c r="X4">
-        <v>0.05501867725789078</v>
+        <v>0.07281762749817698</v>
       </c>
       <c r="Y4">
-        <v>0.1640891884134474</v>
+        <v>0.02649086270543424</v>
       </c>
       <c r="Z4">
-        <v>0.3590534091329493</v>
+        <v>0.2768239956222902</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04615941281351374</v>
+        <v>0.04196599435506897</v>
       </c>
       <c r="AC4">
-        <v>-0.04615941281351374</v>
+        <v>-0.04196599435506897</v>
       </c>
       <c r="AD4">
-        <v>9370.5</v>
+        <v>6965.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9370.5</v>
+        <v>6965.1</v>
       </c>
       <c r="AG4">
-        <v>2355.4</v>
+        <v>1189.1</v>
       </c>
       <c r="AH4">
-        <v>0.3599774113742182</v>
+        <v>0.6399334809492746</v>
       </c>
       <c r="AI4">
-        <v>0.6353269013024523</v>
+        <v>0.7307607566648832</v>
       </c>
       <c r="AJ4">
-        <v>0.1238660685643968</v>
+        <v>0.2327871419901725</v>
       </c>
       <c r="AK4">
-        <v>0.3045513317817429</v>
+        <v>0.3166458072590739</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -948,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banco BBVA Perú (BVL:BBVAC1)</t>
+          <t>Intercorp Financial Services Inc. (BVL:IFS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0516</v>
+        <v>-0.0549</v>
       </c>
       <c r="E5">
-        <v>0.0489</v>
+        <v>-0.2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -975,212 +975,90 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>493.4</v>
+        <v>116.1</v>
       </c>
       <c r="L5">
-        <v>0.397166545922885</v>
+        <v>0.1694395796847636</v>
       </c>
       <c r="M5">
-        <v>239.4</v>
+        <v>194.255</v>
       </c>
       <c r="N5">
-        <v>0.03848998360075886</v>
+        <v>0.05438422128279067</v>
       </c>
       <c r="O5">
-        <v>0.4852047020672882</v>
+        <v>1.673169681309216</v>
       </c>
       <c r="P5">
-        <v>239.4</v>
+        <v>194.2</v>
       </c>
       <c r="Q5">
-        <v>0.03848998360075886</v>
+        <v>0.05436882331532238</v>
       </c>
       <c r="R5">
-        <v>0.4852047020672882</v>
+        <v>1.672695951765719</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.05500000000000682</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0002831329952897317</v>
       </c>
       <c r="U5">
-        <v>3434.1</v>
+        <v>4708.1</v>
       </c>
       <c r="V5">
-        <v>0.5521238625036174</v>
+        <v>1.31809401159047</v>
       </c>
       <c r="W5">
-        <v>0.2055148283905365</v>
+        <v>0.04661340185490023</v>
       </c>
       <c r="X5">
-        <v>0.05693831317765678</v>
+        <v>0.06681065503914499</v>
       </c>
       <c r="Y5">
-        <v>0.1485765152128797</v>
+        <v>-0.02019725318424476</v>
       </c>
       <c r="Z5">
-        <v>0.3331902910017433</v>
+        <v>0.2001986793665634</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04630770638752544</v>
+        <v>0.04422161473855393</v>
       </c>
       <c r="AC5">
-        <v>-0.04630770638752544</v>
+        <v>-0.04422161473855393</v>
       </c>
       <c r="AD5">
-        <v>4158.6</v>
+        <v>5268.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4158.6</v>
+        <v>5268.7</v>
       </c>
       <c r="AG5">
-        <v>724.5000000000005</v>
+        <v>560.5999999999995</v>
       </c>
       <c r="AH5">
-        <v>0.4006976027133277</v>
+        <v>0.5959663371264393</v>
       </c>
       <c r="AI5">
-        <v>0.6150319451017511</v>
+        <v>0.6944836222236868</v>
       </c>
       <c r="AJ5">
-        <v>0.1043301700675374</v>
+        <v>0.1356563823351481</v>
       </c>
       <c r="AK5">
-        <v>0.2177310293012773</v>
+        <v>0.1947609783212894</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Intercorp Financial Services Inc. (BVL:IFS)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.0733</v>
-      </c>
-      <c r="E6">
-        <v>0.09669999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>386.6</v>
-      </c>
-      <c r="L6">
-        <v>0.3572682746511414</v>
-      </c>
-      <c r="M6">
-        <v>193.2</v>
-      </c>
-      <c r="N6">
-        <v>0.04091659960184675</v>
-      </c>
-      <c r="O6">
-        <v>0.4997413347128815</v>
-      </c>
-      <c r="P6">
-        <v>193.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.04091659960184675</v>
-      </c>
-      <c r="R6">
-        <v>0.4997413347128815</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>3007.9</v>
-      </c>
-      <c r="V6">
-        <v>0.6370240162649837</v>
-      </c>
-      <c r="W6">
-        <v>0.1831359545239223</v>
-      </c>
-      <c r="X6">
-        <v>0.05993594672024675</v>
-      </c>
-      <c r="Y6">
-        <v>0.1232000078036756</v>
-      </c>
-      <c r="Z6">
-        <v>0.2221150293526007</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.04846106471576316</v>
-      </c>
-      <c r="AC6">
-        <v>-0.04846106471576316</v>
-      </c>
-      <c r="AD6">
-        <v>3939.8</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>3939.8</v>
-      </c>
-      <c r="AG6">
-        <v>931.9000000000001</v>
-      </c>
-      <c r="AH6">
-        <v>0.4548582248083495</v>
-      </c>
-      <c r="AI6">
-        <v>0.6114283940654293</v>
-      </c>
-      <c r="AJ6">
-        <v>0.1648301112545766</v>
-      </c>
-      <c r="AK6">
-        <v>0.271240213057019</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
         <v>0</v>
       </c>
     </row>
